--- a/DATA_goal/Junction_Flooding_102.xlsx
+++ b/DATA_goal/Junction_Flooding_102.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41534.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>29.26</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Y2" s="4" t="n">
+      <c r="AA2" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AB2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41534.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>55.18</v>
+        <v>5.52</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.95</v>
+        <v>1.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41534.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>42.77</v>
+        <v>4.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="AE4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="AF4" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>1.52</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41534.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.99</v>
+        <v>2.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.02</v>
+        <v>8.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41534.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>21.49</v>
+        <v>2.15</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>18.47</v>
+        <v>1.85</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>7.53</v>
+        <v>0.75</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>29.44</v>
+        <v>2.94</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>11.85</v>
+        <v>1.18</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>10.94</v>
+        <v>1.09</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>110.4</v>
+        <v>11.04</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>21.35</v>
+        <v>2.14</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>26.23</v>
+        <v>2.62</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41534.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>16.28</v>
+        <v>1.63</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>24.24</v>
+        <v>2.42</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>81.83</v>
+        <v>8.18</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>21.71</v>
+        <v>2.17</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.65</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41534.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.35</v>
+        <v>1.54</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44.71</v>
+        <v>4.47</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>37.46</v>
+        <v>3.75</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>59.83</v>
+        <v>5.98</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>24.8</v>
+        <v>2.48</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.94</v>
+        <v>1.79</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>237.5</v>
+        <v>23.75</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>44.73</v>
+        <v>4.47</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.95</v>
+        <v>1.5</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>30.35</v>
+        <v>3.04</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>29.36</v>
+        <v>2.94</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.7</v>
+        <v>1.87</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>53.88</v>
+        <v>5.39</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.47</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41534.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.85</v>
+        <v>0.68</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>20.05</v>
+        <v>2.01</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>31.97</v>
+        <v>3.2</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>102.48</v>
+        <v>10.25</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>20.17</v>
+        <v>2.02</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>14.91</v>
+        <v>1.49</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>28.99</v>
+        <v>2.9</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41534.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>1.98</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_102.xlsx
+++ b/DATA_goal/Junction_Flooding_102.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44783.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.78</v>
+        <v>37.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.36</v>
+        <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.88</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.35</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.44</v>
+        <v>204.37</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.86</v>
+        <v>38.64</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.53</v>
+        <v>25.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.22</v>
+        <v>22.23</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44783.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.54</v>
+        <v>35.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.84</v>
+        <v>28.41</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.93</v>
+        <v>49.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>187.25</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.5</v>
+        <v>44.99</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44783.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.52</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.22</v>
+        <v>42.15</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.7</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.27</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.87</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.29</v>
+        <v>152.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.95</v>
+        <v>29.48</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.02</v>
+        <v>20.25</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB4" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>3.84</v>
+        <v>38.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44783.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.22</v>
+        <v>52.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.27</v>
+        <v>42.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.16</v>
+        <v>71.64</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.1</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.1</v>
+        <v>20.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.67</v>
+        <v>26.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.84</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.88</v>
+        <v>278.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.25</v>
+        <v>52.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.53</v>
+        <v>35.31</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.51</v>
+        <v>35.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.6</v>
+        <v>15.98</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.2</v>
+        <v>21.97</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.51</v>
+        <v>65.06</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_102.xlsx
+++ b/DATA_goal/Junction_Flooding_102.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44783.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>11.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>4.002</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>37.83</v>
+        <v>37.831</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>29.94</v>
+        <v>29.945</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>43.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.9</v>
+        <v>8.901999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.3</v>
+        <v>13.298</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.88</v>
+        <v>14.882</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.46</v>
+        <v>15.457</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.465</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.35</v>
+        <v>19.348</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12</v>
+        <v>12.001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.232</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>204.37</v>
+        <v>204.374</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.64</v>
+        <v>38.641</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.29</v>
+        <v>25.287</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.826</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.23</v>
+        <v>22.227</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.137</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.41</v>
+        <v>15.411</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.318</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.978</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.05</v>
+        <v>16.052</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44783.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>11.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.36</v>
+        <v>35.356</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>28.41</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.86</v>
+        <v>12.855</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>49.32</v>
+        <v>49.317</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.545</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.55</v>
+        <v>12.549</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>14.14</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.79</v>
+        <v>14.786</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.11</v>
+        <v>4.107</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>18.01</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.03</v>
+        <v>11.029</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.078</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>187.25</v>
+        <v>187.251</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>35.77</v>
+        <v>35.771</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.7</v>
+        <v>23.701</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.3</v>
+        <v>12.301</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.32</v>
+        <v>2.324</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.07</v>
+        <v>24.067</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.42</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.05</v>
+        <v>11.054</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.73</v>
+        <v>14.726</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.99</v>
+        <v>44.991</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.5</v>
+        <v>6.502</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.75</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44783.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.638999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.22</v>
+        <v>1.223</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.19</v>
+        <v>29.186</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.52</v>
+        <v>23.522</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.59</v>
+        <v>10.587</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>42.15</v>
+        <v>42.152</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>7.1</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.4</v>
+        <v>10.401</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.7</v>
+        <v>11.703</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.27</v>
+        <v>12.266</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.38</v>
+        <v>3.382</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.87</v>
+        <v>14.872</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>9.06</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.016</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.74</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.91</v>
+        <v>152.913</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.48</v>
+        <v>29.478</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.59</v>
+        <v>19.592</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.21</v>
+        <v>10.214</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.814</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.25</v>
+        <v>20.248</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.73</v>
+        <v>7.729</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.07</v>
+        <v>9.068</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.218</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.38</v>
+        <v>38.375</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.37</v>
+        <v>5.373</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>21.69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44783.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.41</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>78.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.51</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_102.xlsx
+++ b/DATA_goal/Junction_Flooding_102.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,14 +444,14 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>44783.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.7</v>
+        <v>17.701</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.36</v>
+        <v>1.361</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52.21</v>
+        <v>52.213</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.68</v>
+        <v>42.682</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>71.64</v>
+        <v>71.64400000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.91</v>
+        <v>12.906</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>19.1</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.95</v>
+        <v>20.953</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.09</v>
+        <v>22.086</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.04</v>
+        <v>6.038</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.74</v>
+        <v>26.742</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.84</v>
+        <v>15.843</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.871</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.945</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.81</v>
+        <v>278.815</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>52.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.31</v>
+        <v>35.309</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.5</v>
+        <v>18.503</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.79</v>
+        <v>2.791</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.11</v>
+        <v>35.107</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.6</v>
+        <v>13.597</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.98</v>
+        <v>15.982</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.97</v>
+        <v>21.972</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.06</v>
+        <v>65.05800000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.76</v>
+        <v>9.762</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44783.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>78.55</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.51</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_102.xlsx
+++ b/DATA_goal/Junction_Flooding_102.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,14 +444,14 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>44783.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.021</v>
+        <v>24.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.701</v>
+        <v>17.7</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.361</v>
+        <v>1.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52.213</v>
+        <v>52.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.682</v>
+        <v>42.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.904</v>
+        <v>18.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>71.64400000000001</v>
+        <v>71.64</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.086</v>
+        <v>29.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.906</v>
+        <v>12.91</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>19.1</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.953</v>
+        <v>20.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.086</v>
+        <v>22.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.038</v>
+        <v>6.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.798</v>
+        <v>18.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.742</v>
+        <v>26.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.843</v>
+        <v>15.84</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.871</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.945</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.815</v>
+        <v>278.81</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>52.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.351</v>
+        <v>17.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.309</v>
+        <v>35.31</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.503</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.791</v>
+        <v>2.79</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>35.107</v>
+        <v>35.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.326</v>
+        <v>15.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.597</v>
+        <v>13.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.982</v>
+        <v>15.98</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.972</v>
+        <v>21.97</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>65.05800000000001</v>
+        <v>65.06</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.762</v>
+        <v>9.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.693</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44783.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.41</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>78.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.51</v>
+        <v>21.69</v>
       </c>
     </row>
   </sheetData>
